--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NYU_MS\Sem3\GPU\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NYU_MS\Sem3\GPU\Project\gpu_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47DD4C42-C7C1-4418-85EB-F822DF3CB859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDB7C8-59D4-465F-B168-86AA4ABD4B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1A803A9C-7EA6-4B23-AFA0-E8F424863B3C}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -570,7 +570,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>2.5974025974025972E-2</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
@@ -603,7 +603,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H3" s="4">
-        <v>43.029260000000001</v>
+        <v>0.17021276595744683</v>
       </c>
       <c r="I3" s="6">
         <v>2</v>
@@ -636,7 +636,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H4" s="4">
-        <v>48.794330000000002</v>
+        <v>1.8499427262313861</v>
       </c>
       <c r="I4" s="6">
         <v>16</v>
@@ -669,7 +669,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H5" s="4">
-        <v>1093.75</v>
+        <v>2.5022798518096323</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H6" s="4">
-        <v>59.665869999999998</v>
+        <v>9.3525179856115095E-2</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
@@ -735,7 +735,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H7" s="4">
-        <v>57.620820000000002</v>
+        <v>0.43575418994413412</v>
       </c>
       <c r="I7" s="6">
         <v>16</v>
@@ -768,7 +768,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1.5925925925925928</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H9" s="4">
-        <v>45.662100000000002</v>
+        <v>2.269738614928591</v>
       </c>
       <c r="I9" s="6">
         <v>2</v>
@@ -834,7 +834,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H10" s="4">
-        <v>59.500959999999999</v>
+        <v>8.2547169811320754E-3</v>
       </c>
       <c r="I10" s="6">
         <v>16</v>
@@ -867,7 +867,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>2.6345933562428408E-2</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H12" s="4">
-        <v>4.6728969999999999</v>
+        <v>0.19937909624008276</v>
       </c>
       <c r="I12" s="6">
         <v>2</v>
@@ -933,7 +933,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H13" s="4">
-        <v>81.232489999999999</v>
+        <v>1.2269765803838704</v>
       </c>
       <c r="I13" s="6">
         <v>16</v>
@@ -966,7 +966,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>6.6298342541436461E-2</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H15" s="4">
-        <v>45.085659999999997</v>
+        <v>0.57327586206896552</v>
       </c>
       <c r="I15" s="6">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H16" s="4">
-        <v>50.752220000000001</v>
+        <v>2.6673913043478263</v>
       </c>
       <c r="I16" s="6">
         <v>16</v>
@@ -1065,7 +1065,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>5.4921307506053276</v>
       </c>
       <c r="I17" s="4">
         <v>196</v>
@@ -1098,7 +1098,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H18" s="4">
-        <v>3.4602080000000002</v>
+        <v>1.0465116279069767E-2</v>
       </c>
       <c r="I18" s="4">
         <v>1954</v>
@@ -1131,7 +1131,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H19" s="4">
-        <v>1.5045139999999999</v>
+        <v>0.3109756097560975</v>
       </c>
       <c r="I19" s="4">
         <v>19532</v>
@@ -1164,7 +1164,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H20" s="4">
-        <v>1.648352</v>
+        <v>1.6485461441213654</v>
       </c>
       <c r="I20" s="4">
         <v>195313</v>
@@ -1197,7 +1197,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>2.4421140939597317</v>
       </c>
       <c r="I21" s="4">
         <v>196</v>
@@ -1230,7 +1230,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H22" s="4">
-        <v>5.5248619999999997</v>
+        <v>23.201856148491878</v>
       </c>
       <c r="I22" s="4">
         <v>1954</v>
@@ -1263,7 +1263,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H23" s="4">
-        <v>1.566171</v>
+        <v>43.029259896729776</v>
       </c>
       <c r="I23" s="4">
         <v>19532</v>
@@ -1296,7 +1296,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H24" s="4">
-        <v>1.475444</v>
+        <v>48.794326241134748</v>
       </c>
       <c r="I24" s="4">
         <v>195313</v>
@@ -1329,7 +1329,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
+        <v>1093.7500000000002</v>
       </c>
       <c r="I25" s="4">
         <v>196</v>
@@ -1362,7 +1362,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H26" s="4">
-        <v>6.1728399999999999</v>
+        <v>59.665871121718382</v>
       </c>
       <c r="I26" s="4">
         <v>1954</v>
@@ -1395,7 +1395,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H27" s="4">
-        <v>3.4965030000000001</v>
+        <v>57.62081784386617</v>
       </c>
       <c r="I27" s="4">
         <v>19532</v>
@@ -1428,7 +1428,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H28" s="4">
-        <v>3.0973449999999998</v>
+        <v>27.247956403269757</v>
       </c>
       <c r="I28" s="4">
         <v>195313</v>
@@ -1461,7 +1461,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <v>45.662100456621005</v>
       </c>
       <c r="I29" s="4">
         <v>196</v>
@@ -1494,7 +1494,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <v>59.50095969289827</v>
       </c>
       <c r="I30" s="4">
         <v>1954</v>
@@ -1527,7 +1527,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H31" s="4">
-        <v>3.1746029999999998</v>
+        <v>32.154340836012857</v>
       </c>
       <c r="I31" s="4">
         <v>19532</v>
@@ -1560,7 +1560,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H32" s="4">
-        <v>6.1242340000000004</v>
+        <v>4.6728971962616823</v>
       </c>
       <c r="I32" s="4">
         <v>195313</v>
@@ -1593,7 +1593,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H33" s="4">
-        <v>0</v>
+        <v>81.232492997198875</v>
       </c>
       <c r="I33" s="4">
         <v>196</v>
@@ -1626,7 +1626,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>29.585798816568051</v>
       </c>
       <c r="I34" s="4">
         <v>1954</v>
@@ -1659,7 +1659,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H35" s="4">
-        <v>2.3837899999999999</v>
+        <v>45.085662759242567</v>
       </c>
       <c r="I35" s="4">
         <v>19532</v>
@@ -1692,7 +1692,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H36" s="4">
-        <v>3.7288139999999999</v>
+        <v>50.752220409642923</v>
       </c>
       <c r="I36" s="4">
         <v>195313</v>
@@ -1725,7 +1725,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H37" s="4">
-        <v>2.5974000000000001E-2</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="I37" s="4">
         <v>1563</v>
@@ -1758,7 +1758,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H38" s="4">
-        <v>0.170213</v>
+        <v>3.4602076124567471</v>
       </c>
       <c r="I38" s="4">
         <v>15626</v>
@@ -1791,7 +1791,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H39" s="4">
-        <v>1.8499429999999999</v>
+        <v>1.5045135406218655</v>
       </c>
       <c r="I39" s="4">
         <v>156251</v>
@@ -1824,7 +1824,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H40" s="4">
-        <v>2.5022799999999998</v>
+        <v>1.648351648351648</v>
       </c>
       <c r="I40" s="4">
         <v>1562501</v>
@@ -1857,7 +1857,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H41" s="4">
-        <v>9.3524999999999997E-2</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="I41" s="4">
         <v>1563</v>
@@ -1890,7 +1890,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H42" s="4">
-        <v>0.43575399999999997</v>
+        <v>5.5248618784530388</v>
       </c>
       <c r="I42" s="4">
         <v>15626</v>
@@ -1923,7 +1923,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H43" s="4">
-        <v>1.5925929999999999</v>
+        <v>1.5661707126076743</v>
       </c>
       <c r="I43" s="4">
         <v>156251</v>
@@ -1956,7 +1956,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H44" s="4">
-        <v>2.269739</v>
+        <v>1.4754443897983558</v>
       </c>
       <c r="I44" s="4">
         <v>1562501</v>
@@ -1989,7 +1989,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H45" s="4">
-        <v>8.2550000000000002E-3</v>
+        <v>15.873015873015873</v>
       </c>
       <c r="I45" s="4">
         <v>1563</v>
@@ -2022,7 +2022,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H46" s="4">
-        <v>2.6346000000000001E-2</v>
+        <v>6.1728395061728403</v>
       </c>
       <c r="I46" s="4">
         <v>15626</v>
@@ -2055,7 +2055,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H47" s="4">
-        <v>0.199379</v>
+        <v>3.4965034965034962</v>
       </c>
       <c r="I47" s="4">
         <v>156251</v>
@@ -2088,7 +2088,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H48" s="4">
-        <v>1.226977</v>
+        <v>3.0973451327433628</v>
       </c>
       <c r="I48" s="4">
         <v>1562501</v>
@@ -2121,7 +2121,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H49" s="4">
-        <v>6.6297999999999996E-2</v>
+        <v>29.411764705882351</v>
       </c>
       <c r="I49" s="4">
         <v>1563</v>
@@ -2154,7 +2154,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H50" s="4">
-        <v>0.57327600000000001</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="I50" s="4">
         <v>15626</v>
@@ -2187,7 +2187,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H51" s="4">
-        <v>2.6673909999999998</v>
+        <v>3.1746031746031744</v>
       </c>
       <c r="I51" s="4">
         <v>156251</v>
@@ -2220,7 +2220,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H52" s="4">
-        <v>5.4921309999999997</v>
+        <v>6.1242344706911647</v>
       </c>
       <c r="I52" s="4">
         <v>1562501</v>
@@ -2253,7 +2253,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H53" s="4">
-        <v>1.0465E-2</v>
+        <v>20</v>
       </c>
       <c r="I53" s="4">
         <v>1563</v>
@@ -2286,7 +2286,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H54" s="4">
-        <v>0.31097599999999997</v>
+        <v>6.6225165562913908</v>
       </c>
       <c r="I54" s="4">
         <v>15626</v>
@@ -2319,7 +2319,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H55" s="4">
-        <v>1.6485460000000001</v>
+        <v>2.3837902264600714</v>
       </c>
       <c r="I55" s="4">
         <v>156251</v>
@@ -2352,7 +2352,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H56" s="4">
-        <v>2.4421140000000001</v>
+        <v>3.7288135593220342</v>
       </c>
       <c r="I56" s="4">
         <v>1562501</v>
